--- a/Business Analysis/data/user_15.xlsx
+++ b/Business Analysis/data/user_15.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A236EF58-484C-4507-AB38-787F5F55C255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ABEAF5-F91C-4888-A537-6B700963FF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template BillyP for Music Data " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="115">
   <si>
     <t>male</t>
   </si>
@@ -214,21 +214,9 @@
     <t xml:space="preserve">Shemyaza </t>
   </si>
   <si>
-    <t>State of Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Om</t>
-  </si>
-  <si>
     <t xml:space="preserve">Come To Daddy </t>
   </si>
   <si>
-    <t>My So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Venetian Snares</t>
-  </si>
-  <si>
     <t xml:space="preserve">Victim </t>
   </si>
   <si>
@@ -304,15 +292,9 @@
     <t>Sabazius</t>
   </si>
   <si>
-    <t>Return</t>
-  </si>
-  <si>
     <t>AphexTwin</t>
   </si>
   <si>
-    <t>CalledLife</t>
-  </si>
-  <si>
     <t>PrimitiveMan</t>
   </si>
   <si>
@@ -371,12 +353,24 @@
   </si>
   <si>
     <t>Sam&amp;Dave</t>
+  </si>
+  <si>
+    <t>State of Non Return</t>
+  </si>
+  <si>
+    <t>Om</t>
+  </si>
+  <si>
+    <t>My So CalledLife</t>
+  </si>
+  <si>
+    <t>Venetian Snares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1210,11 +1204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1218,7 @@
     <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1256,7 +1250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1285,10 +1279,10 @@
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1317,10 +1311,10 @@
         <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1349,10 +1343,10 @@
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1381,10 +1375,10 @@
         <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1410,16 +1404,13 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1445,13 +1436,13 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1477,16 +1468,13 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1512,13 +1500,13 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1544,13 +1532,13 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1576,13 +1564,13 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1608,13 +1596,13 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1640,13 +1628,13 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1672,13 +1660,13 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1704,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1736,10 +1724,10 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1768,10 +1756,10 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1800,10 +1788,10 @@
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1832,10 +1820,10 @@
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1864,10 +1852,10 @@
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1896,10 +1884,10 @@
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1928,10 +1916,10 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1960,10 +1948,10 @@
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1992,10 +1980,10 @@
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2024,10 +2012,10 @@
         <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2056,10 +2044,10 @@
         <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2088,10 +2076,10 @@
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2120,10 +2108,10 @@
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2152,10 +2140,10 @@
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Business Analysis/data/user_15.xlsx
+++ b/Business Analysis/data/user_15.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epistimi\Documents\DataSience\Multimodal\emotion_based_music_recomendation\Business Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A236EF58-484C-4507-AB38-787F5F55C255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="Template BillyP for Music Data " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -376,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,8 +903,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1217,14 +1247,14 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="72.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1256,7 +1286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1350,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1382,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1612,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1708,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1740,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1772,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1804,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1836,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1868,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1900,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1964,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +1996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2028,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2092,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2124,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2156,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
